--- a/nlp/相似文章.xlsx
+++ b/nlp/相似文章.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20_code_muti_language\GitHub projects\JudicatureAutoLabel\nlp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2792AF30-B178-4DEF-9D86-919F454D27CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="615" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="105">
-  <si>
-    <t>filePath</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="279">
+  <si>
+    <t>currentCasePath</t>
   </si>
   <si>
     <t>s1</t>
@@ -40,312 +34,834 @@
     <t>s5</t>
   </si>
   <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\52淮阴市商联糖烟酒有限公司与张云民间借贷纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\丁某交通肇事罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\丁瑞何猛等犯盗窃罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\上海波隆冷链物流有限公司苏州分公司与高素琴返还原物纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\东莞市御明电器科技有限公司与上海洛佛实业有限公司专利权转让合同纠纷二审判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\东莞市艾德照明科技有限公司欧普照明股份有限公司侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\东莞市赛力自动化设备科技股份有限公司北京爱迪泰克科技有限公司侵害实用新型专利权纠纷二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\中国工商银行股份有限公司无锡开发区支行与周贵荣王咸生等金融借款合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\付广东付广忠犯抢劫罪盗窃罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\仲某甲与杨某离婚纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\任慧渊与赵涛中华联合财产保险股份有限公司保定中心支公司机动车交通事故责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\伍洪年与伍洪美合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\侍丹丹与周滨民间借贷纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\保定市公共交通总公司与刘艳伟劳动争议一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\保定市大自然建材城与保定市南市区杨庄乡下闸村村民委员会民间借贷纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\冯春慧与路文军租赁合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\冯某交通肇事罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\刘博林与张永好永安财产保险股份有限公司石家庄中心支公司机动车交通事故责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\刘某故意伤害罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\刘铁良与高国方邢海江等财产损害赔偿纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\刘铁良与高国方邢海江财产损害赔偿纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\北京天泓科技股份有限公司郭新洪等侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\北京零极中盛科技有限公司周洋等侵害技术秘密纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\卢新宇与广州杜比医疗技术有限公司杜比环宇医疗技术北京有限公司借款合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\原告丛某与被告江某王某房屋租赁合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\原告丛某某与被告威海纳新信息咨询有限公司身体权纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\原告威海市环翠花园业主委员会与被告芦某某物业服务合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\原告王某某与被告王某某1刘某某民间借贷纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\原告石勇诉被告科德科技有限责任公司劳动争议纠纷民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\原告纪某某与被告李某民间借贷纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\原告鞠某某与被告徐某某吴某某承揽合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\发银行股份有限公司无锡支行与无锡市澳尔来纺织制品有限公司无锡巨丰化肥有限公司借款合同纠纷一审民事判.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\史某甲与万某离婚纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\叶鹏与淮安金山桥学校徐州市金山桥教育集团合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\告中国工商银行股份有限公司威海市分行与被告民生人寿保险股份有限公司威海中心支公司财产损害赔偿纠纷一.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\告王某某谷某某1谷某某2谷某某3与被告谷某某8第三人谷某某4谷某某5所有权法定继承纠纷一审民事判决.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\周某盗掘古文化遗址古墓葬罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\周爱荣石昊东与底彦贞刘腾杨兴金子龙生命权健康权身体权纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\唐永贵犯盗窃罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\夏光荣与淮安市西海投资发展有限公司房屋拆迁安置补偿合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\季治林与胡亚瑛民间借贷纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\安市华石建材有限公司与中国有色金属工业第十四冶金建设公司中国有色金属工业第十四冶金建设公司苏州分公.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\安徽科麦斯物联网科技有限公司安徽古弗兰数字科技有限公司计算机软件开发合同纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\宋某某张某某犯盗窃罪掩饰隐瞒犯罪所得罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\定市市区农村信用合作联社五尧信用社与保定市满城县宝山集团有限公司满城县中天农林商贸有限公司良园宾馆.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\山东帝云信息科技有限公司李富强等计算机软件开发合同纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\川天府银行股份有限公司成都锦江支行四川千业环保产业发展有限公司金融借款合同纠纷再审审查与审判监督民.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\常州通灵信息科技有限公司福启文化北京有限责任公司等计算机软件开发合同纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\广州徒狮贸易有限公司陈华妹等侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\张兰英与孙兆祥健康权身体权纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\张淑芹与郭森道路交通事故人身损害赔偿纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\张爱会等与中国人民财产保险股份有限公司济南市分公司机动车交通事故责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\徐家德与孟春华林洪余等提供劳务者受害责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\徐晓玉与魏良久姚述机动车交通事故责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\徐永新与清浦建筑安装工程总公司第四分公司清浦建筑安装工程总公司买卖合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\戴某故意伤害罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\春龙与保定东兴建设有限责任公司保定东兴建设有限责任公司第一分公司建设工程施工合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\朗坤智慧科技股份有限公司葫芦岛市自然资源局计算机软件开发合同纠纷二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\李某与杨某离婚纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\李泽稳与张传海无锡市格源投资担保有限公司民间借贷纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\李瑞刚等涉盗窃罪刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\杨林与水城县劳动局四川沱江路桥公司工伤认定纠纷一案的行政判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\杨森与中国农业银行股份有限公司莱芜分行谷有富金融借款合同纠纷二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\杨研与江苏辰宇建设工程有限公司生命权健康权身体权纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\桑同权与桑学端民间借贷纠纷民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\梁慧群与尚明葛伟等机动车交通事故责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\民安保险中国有限公司莱芜支公司与莱芜市鸿运工贸有限公司财产保险合同纠纷二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\江苏东凯电气有限公司与金晓华买卖合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\江苏巨衡机械有限公司重庆环际低碳节能技术开发有限公司侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\江苏紫荆花信息科技有限公司与邹静瑶经济补偿金纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\汤某与呼某探望权纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\淮阴市浦南城市信用社与戴海方金融借款合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\淮阴市浦南城市信用社与谢友忠金融借款合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\玉环品臣液压工具有限公司玉环联刚工具有限公司等侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\王亮与江苏淮钢集团有限公司劳动合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\王传波与淮安市海源装饰工程有限公司王宗元提供劳务者受害责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\王建萍与李文龙机动车交通事故责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\王斌与中国保险监督管理委员会宁波监管局行政许可一审行政判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\王某与孟某变更抚养关系纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\王福生与狄纪明韩志妹民间借贷纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\王秀珍与徐晓针中国平安财产保险股份有限公司淮安中心支公司机动车交通事故责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\田某盗窃罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\管敏春与保定市海天花园酒店有限公司宏基大众洗浴中心旅店服务合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\苏州思杰马克丁软件有限公司李卓侵害计算机软件著作权纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\茂名市华一新型建材有限公司与广东明兴建筑集团有限公司买卖合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\萨帕铝型材江阴有限公司申请公示催告一案公示催告民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\葛华与胡钢中国人民财产保险股份有限公司淮安市分公司机动车交通事故责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\蔡占元林保花与王瑛蔡某合同无因管理不当得利纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\蔡占元林保花等与王瑛蔡某合同无因管理不当得利纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\许秀红与胥健生命权健康权身体权纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\赵某故意伤害罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\赵红美姚刚与刘永久合同无因管理不当得利纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\邬杏花与宁波市规划局行政确认一审行政判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\长沙米拓信息技术有限公司河南省工程建设协会侵害计算机软件著作权纠纷民事二审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\陈品华赖玲妹等与宁波市公安局高新技术开发区分局一审行政判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\陈永才陈冬冬等与陈银昌卢明成等机动车交通事故责任纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\马某危险驾驶罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\高小二与杨跃卫王永海等保证合同纠纷一审民事判决书.txt</t>
-  </si>
-  <si>
-    <t>../project-dev/judicature/src/main/resources/case/txt/judgment\高海峰高语贵犯职务侵占罪一审刑事判决书.txt</t>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\中欧汽车电器有限公司吴国琳等合伙协议纠纷股权转让纠纷其他民事民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\中铁九局集团成都工程有限公司中诚信托有限责任公司信托纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\中铁九局集团有限公司中铁九局集团有限公司成都分公司等信托纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\什融鑫典当有限责任公司博尔塔拉蒙古自治州广源建筑安装工程有限责任公司民间借贷纠纷再审审查与审判监督.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\仲利国际贸易上海有限公司青岛森逸国际船舶服务有限公司等买卖合同纠纷其他民事民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\厦门众鼎科技有限公司阮宇平等计算机软件开发合同纠纷民事二审民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\古绮莹河源市振邦房地产有限公司商品房预售合同纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\史生来谭承天建设工程施工合同纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\哈尔滨东电实业发展有限公司中国工商银行股份有限公司哈尔滨红旗支行合同纠纷其他民事民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\唐山国华科技有限公司中国有色金属工业西安岩土工程有限公司建设工程施工合同纠纷其他民事民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\堰市竹山县郧商小额贷款有限责任公司湖北省新华书店集团有限公司十堰市分公司等小额借款合同纠纷民事申请.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\孙家凤孟晓培等股权转让纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\安徽河海水利水电机械维护有限公司西宁特殊钢股份有限公司合同纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\山西信托股份有限公司程正义等案外人执行异议之诉民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\川天府银行股份有限公司成都锦江支行四川千业环保产业发展有限公司金融借款合同纠纷再审审查与审判监督民.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\广西欧亚房地产开发有限公司广西建工集团建筑工程总承包有限公司建设工程施工合同纠纷其他民事民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\张亚峰李潜案外人执行异议之诉再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\张震中原银行股份有限公司新乡金利支行保证合同纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\新疆华强房地产开发有限公司巴州天润恒信典当有限责任公司民间借贷纠纷其他民事民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\欧珠伦珠建设工程施工合同纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\江市正达房地产开发有限公司重庆大雍建设集团有限公司因申请诉前财产保全损害责任纠纷民事申请再审审查民.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\江西富盈置业有限公司吴福祥等建设工程施工合同纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\济南荣耀房地产开发有限公司济南四建集团有限责任公司建设工程施工合同纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\海南鑫弘桥实业集团有限公司王占友商品房销售合同纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\涧县华阳鸿基置地有限责任公司湖南鹏华装饰设计工程有限责任公司等建设工程施工合同纠纷其他民事民事裁定.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\王滨河南六合置业有限公司再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\球天下投资集团湖南节能门窗工程有限公司长沙振望投资发展有限公司合同纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\瑞华会计师事务所周向东等证券虚假陈述责任纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\甘肃连鑫建设有限责任公司中国第四冶金建设有限责任公司侵权责任纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\白福贵嫩江市白云乡人民政府合同纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\苏州安靠电源有限公司与江西昌河汽车有限责任公司买卖合同纠纷再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\蓝松马高发展有限公司与公司有关的纠纷其他民事民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\辽市安邦房地产开发有限公司中国江苏国际经济技术合作集团有限公司合资合作开发房地产合同纠纷民事申请再....txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\连云港中豪房地产开发有限公司与连云港市教育局合同纠纷再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\重庆市康德实业集团有限公司重庆铝业有限公司合同纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\陈文达林万荣等追偿权纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\陈明贵州建工集团第八建筑工程有限责任公司等建设工程施工合同纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\陕西宽建实业有限公司中铁二十局集团第六工程有限公司建设工程施工合同纠纷再审审查与审判监督民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\青海亿邦小额贷款股份有限公司朱林等案外人执行异议之诉其他民事民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\马小萍韩崎等金融借款合同纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\黄立雄黄少仕等借款合同纠纷其他民事民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\adjudication\龚正飞中国甘肃国际经济技术合作有限公司等建设工程施工合同纠纷民事申请再审审查民事裁定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\何某妃强制医疗决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\何玲君张选忠买卖合同纠纷执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\兰晓锋非法制造买卖运输邮寄储存枪支弹药爆炸物管辖刑事决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\刘冠男诈骗罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\刘帅新租赁合同纠纷执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\刘荣森与王留成提供劳务者受害责任纠纷执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\周海军诈骗罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\姜士恒申请共同赔偿决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\孙亮执行复议决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\宋锦引诱教唆欺骗他人吸毒罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\山东唐骏欧铃汽车制造有限公司执行复议决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\张丽燕申请国家赔偿决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\张务民莱芜市公安局张家洼分局违法刑事拘留赔偿赔偿决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\张期传莱芜市公安局张家洼分局违法刑事拘留赔偿赔偿决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\张永旺走私贩卖运输制造毒品再审审查与审判监督再审决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\徐建思王越等诈骗罪非法拘禁罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\徐进发非法制造买卖运输邮寄储存枪支弹药爆炸物管辖刑事决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\曹文凯诈骗罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\朱双喜盗窃抗诉再审决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\李兴华非法制造买卖运输邮寄储存枪支弹药爆炸物管辖刑事决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\李崇义贪污罪暂予监外执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\李建超建占五民间借贷纠纷执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\李昆松诈骗罪非法拘禁罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\杨伟增其他决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\杨海和吴满云凌英杨景现杨景芳申请国家司法救助一案司法救助决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\杨灿涛翁泽彬强奸罪走私贩卖运输制造毒品罪强奸罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\湖南方图进毅房地产开发有限公司湖南丽图房地产开发有限公司与怀化市中级人民法院国家赔偿一案决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\王风于思佳诈骗罪非法拘禁罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\王麦屯执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\罪犯房某某受贿罪暂予监外执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\苏将宏申请莱芜市莱城区人民法院国家赔偿决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\莱芜市新大地资产清算管理有限公司申请莱芜市钢城区人民法院国家赔偿决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\莱芜市赢洲服饰有限公司吕乃芳错误执行赔偿赔偿决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\蔡翠姑高凯民间借贷纠纷执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\赵云方身体权纠纷执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\赵仕山开设赌场罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\赵鹏飞合同纠纷执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\邢红强诈骗罪非法拘禁罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\郑发兴非法持有私藏枪支弹药再审审查与审判监督刑事决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\陈纪晓民间借贷纠纷执行复议决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\陈述东与靖州苗族侗族自治县人民法院国家赔偿一案决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\韩风英暂予监外执行决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\黄亚根非法制造买卖运输邮寄储存枪支弹药爆炸物管辖刑事决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\decision\黄志伟姜闯等诈骗罪非法拘禁罪诈骗罪刑事指定管辖管辖决定书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\52淮阴市商联糖烟酒有限公司与张云民间借贷纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\丁某交通肇事罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\丁瑞何猛等犯盗窃罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\上海波隆冷链物流有限公司苏州分公司与高素琴返还原物纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\东莞市御明电器科技有限公司与上海洛佛实业有限公司专利权转让合同纠纷二审判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\东莞市艾德照明科技有限公司欧普照明股份有限公司侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\东莞市赛力自动化设备科技股份有限公司北京爱迪泰克科技有限公司侵害实用新型专利权纠纷二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\中国工商银行股份有限公司无锡开发区支行与周贵荣王咸生等金融借款合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\付广东付广忠犯抢劫罪盗窃罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\仲某甲与杨某离婚纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\任慧渊与赵涛中华联合财产保险股份有限公司保定中心支公司机动车交通事故责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\伍洪年与伍洪美合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\侍丹丹与周滨民间借贷纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\保定市公共交通总公司与刘艳伟劳动争议一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\保定市大自然建材城与保定市南市区杨庄乡下闸村村民委员会民间借贷纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\冯春慧与路文军租赁合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\冯某交通肇事罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\刘博林与张永好永安财产保险股份有限公司石家庄中心支公司机动车交通事故责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\刘某故意伤害罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\刘铁良与高国方邢海江等财产损害赔偿纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\刘铁良与高国方邢海江财产损害赔偿纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\北京天泓科技股份有限公司郭新洪等侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\北京零极中盛科技有限公司周洋等侵害技术秘密纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\卢新宇与广州杜比医疗技术有限公司杜比环宇医疗技术北京有限公司借款合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\原告丛某与被告江某王某房屋租赁合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\原告丛某某与被告威海纳新信息咨询有限公司身体权纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\原告威海市环翠花园业主委员会与被告芦某某物业服务合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\原告王某某与被告王某某1刘某某民间借贷纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\原告石勇诉被告科德科技有限责任公司劳动争议纠纷民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\原告纪某某与被告李某民间借贷纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\原告鞠某某与被告徐某某吴某某承揽合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\发银行股份有限公司无锡支行与无锡市澳尔来纺织制品有限公司无锡巨丰化肥有限公司借款合同纠纷一审民事判.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\史某甲与万某离婚纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\叶鹏与淮安金山桥学校徐州市金山桥教育集团合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\告中国工商银行股份有限公司威海市分行与被告民生人寿保险股份有限公司威海中心支公司财产损害赔偿纠纷一.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\告王某某谷某某1谷某某2谷某某3与被告谷某某8第三人谷某某4谷某某5所有权法定继承纠纷一审民事判决.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\周某盗掘古文化遗址古墓葬罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\周爱荣石昊东与底彦贞刘腾杨兴金子龙生命权健康权身体权纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\唐永贵犯盗窃罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\夏光荣与淮安市西海投资发展有限公司房屋拆迁安置补偿合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\季治林与胡亚瑛民间借贷纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\安市华石建材有限公司与中国有色金属工业第十四冶金建设公司中国有色金属工业第十四冶金建设公司苏州分公.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\安徽科麦斯物联网科技有限公司安徽古弗兰数字科技有限公司计算机软件开发合同纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\宋某某张某某犯盗窃罪掩饰隐瞒犯罪所得罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\定市市区农村信用合作联社五尧信用社与保定市满城县宝山集团有限公司满城县中天农林商贸有限公司良园宾馆.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\山东帝云信息科技有限公司李富强等计算机软件开发合同纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\川天府银行股份有限公司成都锦江支行四川千业环保产业发展有限公司金融借款合同纠纷再审审查与审判监督民.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\常州通灵信息科技有限公司福启文化北京有限责任公司等计算机软件开发合同纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\广州徒狮贸易有限公司陈华妹等侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\张兰英与孙兆祥健康权身体权纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\张淑芹与郭森道路交通事故人身损害赔偿纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\张爱会等与中国人民财产保险股份有限公司济南市分公司机动车交通事故责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\徐家德与孟春华林洪余等提供劳务者受害责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\徐晓玉与魏良久姚述机动车交通事故责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\徐永新与清浦建筑安装工程总公司第四分公司清浦建筑安装工程总公司买卖合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\戴某故意伤害罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\春龙与保定东兴建设有限责任公司保定东兴建设有限责任公司第一分公司建设工程施工合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\朗坤智慧科技股份有限公司葫芦岛市自然资源局计算机软件开发合同纠纷二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\李某与杨某离婚纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\李泽稳与张传海无锡市格源投资担保有限公司民间借贷纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\李瑞刚等涉盗窃罪刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\杨林与水城县劳动局四川沱江路桥公司工伤认定纠纷一案的行政判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\杨森与中国农业银行股份有限公司莱芜分行谷有富金融借款合同纠纷二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\杨研与江苏辰宇建设工程有限公司生命权健康权身体权纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\桑同权与桑学端民间借贷纠纷民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\梁慧群与尚明葛伟等机动车交通事故责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\民安保险中国有限公司莱芜支公司与莱芜市鸿运工贸有限公司财产保险合同纠纷二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\江苏东凯电气有限公司与金晓华买卖合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\江苏巨衡机械有限公司重庆环际低碳节能技术开发有限公司侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\江苏紫荆花信息科技有限公司与邹静瑶经济补偿金纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\汤某与呼某探望权纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\淮阴市浦南城市信用社与戴海方金融借款合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\淮阴市浦南城市信用社与谢友忠金融借款合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\玉环品臣液压工具有限公司玉环联刚工具有限公司等侵害实用新型专利权纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\王亮与江苏淮钢集团有限公司劳动合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\王传波与淮安市海源装饰工程有限公司王宗元提供劳务者受害责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\王建萍与李文龙机动车交通事故责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\王斌与中国保险监督管理委员会宁波监管局行政许可一审行政判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\王某与孟某变更抚养关系纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\王福生与狄纪明韩志妹民间借贷纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\王秀珍与徐晓针中国平安财产保险股份有限公司淮安中心支公司机动车交通事故责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\田某盗窃罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\管敏春与保定市海天花园酒店有限公司宏基大众洗浴中心旅店服务合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\苏州思杰马克丁软件有限公司李卓侵害计算机软件著作权纠纷民事二审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\茂名市华一新型建材有限公司与广东明兴建筑集团有限公司买卖合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\萨帕铝型材江阴有限公司申请公示催告一案公示催告民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\葛华与胡钢中国人民财产保险股份有限公司淮安市分公司机动车交通事故责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\蔡占元林保花与王瑛蔡某合同无因管理不当得利纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\蔡占元林保花等与王瑛蔡某合同无因管理不当得利纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\许秀红与胥健生命权健康权身体权纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\赵某故意伤害罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\赵红美姚刚与刘永久合同无因管理不当得利纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\邬杏花与宁波市规划局行政确认一审行政判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\陈品华赖玲妹等与宁波市公安局高新技术开发区分局一审行政判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\陈永才陈冬冬等与陈银昌卢明成等机动车交通事故责任纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\马某危险驾驶罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\高小二与杨跃卫王永海等保证合同纠纷一审民事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\judgment\高海峰高语贵犯职务侵占罪一审刑事判决书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\个旧市农村信用合作联社潍坊农村商业银行股份有限公司侵权责任纠纷二审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\中南建设集团有限公司与宁德市蕉城宏鑫交通工程投资有限公司建设工程施工合同纠纷申请再审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\余小清浙江省义乌市人民政府再审行政调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\北京中坤投资集团有限公司轮台县人民政府合同纠纷再审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\北京尚学跨考教育科技有限公司北京金唯新思科技有限公司计算机软件开发合同纠纷民事二审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\北京市电信工程局有限公司孙鹏飞等建设工程施工合同纠纷民事二审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\吴同宇侯玉伟等买卖合同纠纷民事再审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\哈尔滨市香坊区乐佳超市宁波市诺曼电子科技有限公司侵害实用新型专利权纠纷二审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\山东宁津农村商业银行股份有限公司吴国强等金融借款合同纠纷民事再审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\新疆昌吉市政建设集团有限公司罗在伟建设工程施工合同纠纷再审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\李宁北京知达客信息技术有限公司计算机软件开发合同纠纷二审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\汉金牛经济发展有限公司中国机械工业建设集团有限公司与武汉金牛经济发展有限公司中国机械工业建设集团有.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\诸暨镭尔福机械科技有限公司圣东尼上海针织机器有限公司侵害发明专利权纠纷二审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\mediate\青岛培诺教育科技股份有限公司武汉震旦法商专修学院等侵害商标权纠纷民事二审民事调解书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\中国信达资产管理股份有限公司山东省分公司与莱芜市东方彩印有限公司等信用证纠纷执行销案通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\交通肇事刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\偷税刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\冉胜林行贿驳回申诉通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\冯德俊故意伤害罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\刘希明国有公司企业事业单位人员滥用职权罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\合同诈骗刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\吴伟光行贿罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\宋文平过失致人死亡罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\干恩先故意伤害罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\张恒林挪用资金其他刑事刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\张曰华贪污挪用公款驳回申诉通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\强奸刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\强奸刑事驳回申诉通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\徇私枉法受贿刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\抢劫聚众斗殴刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\拒不执行判决裁定刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\挪用公款刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\故意伤害刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\时相臣挪用资金其他刑事刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\朱桂芝故意伤害罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\李安堂故意伤害罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\李秋分与刘东风执行结案通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\李钱章与李兴亮执行结案通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\杨敬贤杨振等故意杀人罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\楚俊红与青海豪龙房地产开发有限公司执行结案通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\焦慧婕驳回申诉通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\王庆华挪用公款罪贪污罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\王德义非法占用农用地其他刑事刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\王永祥贪污挪用资金其他刑事刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\王淑欣驳回申诉通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\王玉虎交通肇事罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\玩忽职守刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\白贤海贪污罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\盗窃诈骗刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\职务侵占刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\胡帝胜信用卡诈骗罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\茫崖天利汽车修理部与靖边县科源石油技术服务有限公司执行结案通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\荣坤 故意伤害罪 驳回申诉通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\莱芜市永红文化传媒中心与山东莱芜南方商城有限公司广告合同纠纷仲裁案件执行结案通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\西安瑾瑜物业管理有限公司安康分公司与王兰霞物业服务合同纠纷一审执行结案通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\覃道雄覃道英受贿罪贪污罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\诈骗刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\谭君走私贩卖运输制造毒品非法制造买卖运输邮寄储存枪支弹药爆炸物其他刑事刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\贪污刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\走私贩卖运输制造毒品刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\郝乐平妨害公务罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\郝张双妨害公务罪刑事申诉再审审查刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\雷志林于井英与叶军执行结案通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\非法吸收公众存款刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\韩吉群挪用资金其他刑事刑事通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\高双牛 贪污罪 驳回申诉通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\notification\龙相诈骗案驳回申诉通知书.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\2013望民督字第01818号申请人刘国平与被申请人侯宇支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\上海亚致力物流有限公司大连分公司申请大连闻达化工股份有限公司支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\上海亚致力物流有限公司申请大连闻达化工股份有限公司支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\上海亚致力物流有限公司青岛分公司申请大连闻达化工股份有限公司支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\刘丽芳对闫平才申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\唐雪峰对张雷申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\杜彦强对张成慧申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\淮安市郊区农村信用合作社联合社尚文中等申请支付令民事支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\淮安市郊区农村信用联社杜锦友等申请支付令民事支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\满霞对魏世明申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\焦运现对王照红申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\王玲对杨新宏申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\白玛桑珠与罗布曲达买卖合同纠纷支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\陇南恒成物业服务有限公司对王学宏事情支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\陇南恒成物业服务有限公司对蒲小娟申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\陇南恒成物业服务有限公司对谢学恭申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\陇南恒成物业服务有限公司对豆庆荣申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\陇南恒成物业服务有限公司对赵林仲申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\陇南恒成物业服务有限公司对陈鹏申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\陇南恒成物业服务有限公司对韩刘忠申请支付令.txt</t>
+  </si>
+  <si>
+    <t>../project-dev/judicature/src/main/resources/case/txt\order\马志云与边巴次仁买卖合同纠纷支付令.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -353,15 +869,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -407,23 +916,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,7 +966,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,27 +998,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,24 +1032,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,16 +1207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -779,22 +1242,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -802,22 +1265,22 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -825,22 +1288,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -848,22 +1311,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -871,22 +1334,22 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -894,22 +1357,22 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -917,22 +1380,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -940,22 +1403,22 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -963,22 +1426,22 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -986,22 +1449,22 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1009,22 +1472,22 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1032,22 +1495,22 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1055,22 +1518,22 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1078,22 +1541,22 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1101,22 +1564,22 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1124,22 +1587,22 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1147,22 +1610,22 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1170,22 +1633,22 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1193,22 +1656,22 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1216,22 +1679,22 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1239,22 +1702,22 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1262,22 +1725,22 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
-      </c>
       <c r="G23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1285,22 +1748,22 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1308,22 +1771,22 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1331,22 +1794,22 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1354,22 +1817,22 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1377,22 +1840,22 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
         <v>30</v>
       </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1400,22 +1863,22 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1423,22 +1886,22 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1446,22 +1909,22 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
         <v>36</v>
       </c>
-      <c r="E31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1469,22 +1932,22 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1492,22 +1955,22 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1515,22 +1978,22 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1538,22 +2001,22 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1561,22 +2024,22 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1584,22 +2047,22 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" t="s">
-        <v>49</v>
-      </c>
       <c r="G37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1607,22 +2070,22 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1630,22 +2093,22 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1653,22 +2116,22 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1676,22 +2139,22 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1699,22 +2162,22 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1722,22 +2185,22 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1745,22 +2208,22 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1768,22 +2231,22 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1791,22 +2254,22 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
         <v>90</v>
       </c>
-      <c r="E46" t="s">
-        <v>78</v>
-      </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1814,22 +2277,22 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1837,22 +2300,22 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1860,22 +2323,22 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1883,22 +2346,22 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1906,22 +2369,22 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1929,22 +2392,22 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1952,22 +2415,22 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1975,22 +2438,22 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1998,22 +2461,22 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2021,22 +2484,22 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2044,22 +2507,22 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2067,22 +2530,22 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="G58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2090,22 +2553,22 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2113,22 +2576,22 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2136,22 +2599,22 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2159,22 +2622,22 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2182,22 +2645,22 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2205,22 +2668,22 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="F64" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2228,22 +2691,22 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F65" t="s">
         <v>81</v>
       </c>
       <c r="G65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2251,22 +2714,22 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2274,22 +2737,22 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2297,22 +2760,22 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="G68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2320,22 +2783,22 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2343,22 +2806,22 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2366,22 +2829,22 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G71" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2389,22 +2852,22 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2412,22 +2875,22 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2435,22 +2898,22 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G74" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2458,22 +2921,22 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2481,22 +2944,22 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F76" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2504,22 +2967,22 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2527,22 +2990,22 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2550,22 +3013,22 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s">
         <v>70</v>
       </c>
-      <c r="E79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" t="s">
-        <v>34</v>
-      </c>
       <c r="G79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2573,22 +3036,22 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2596,22 +3059,22 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
         <v>70</v>
       </c>
-      <c r="D81" t="s">
-        <v>18</v>
-      </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2619,22 +3082,22 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2642,22 +3105,22 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2665,22 +3128,22 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F84" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2688,22 +3151,22 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2711,22 +3174,22 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E86" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2734,22 +3197,22 @@
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E87" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" t="s">
+        <v>63</v>
+      </c>
+      <c r="G87" t="s">
         <v>65</v>
       </c>
-      <c r="F87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2757,22 +3220,22 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2780,22 +3243,22 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="F89" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="G89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2803,22 +3266,22 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D90" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="F90" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="G90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2826,22 +3289,22 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="G91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2849,22 +3312,22 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2872,22 +3335,22 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="F93" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2895,22 +3358,22 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="E94" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2918,22 +3381,22 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="D95" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="E95" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2941,22 +3404,22 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="D96" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2964,22 +3427,22 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2987,22 +3450,22 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F98" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3010,22 +3473,22 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="D99" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="F99" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="G99" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3033,24 +3496,4024 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="D100" t="s">
+        <v>156</v>
+      </c>
+      <c r="E100" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" t="s">
+        <v>106</v>
+      </c>
+      <c r="G100" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101" t="s">
+        <v>156</v>
+      </c>
+      <c r="E101" t="s">
+        <v>174</v>
+      </c>
+      <c r="F101" t="s">
+        <v>166</v>
+      </c>
+      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" t="s">
+        <v>174</v>
+      </c>
+      <c r="F102" t="s">
+        <v>163</v>
+      </c>
+      <c r="G102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
+        <v>156</v>
+      </c>
+      <c r="E103" t="s">
+        <v>159</v>
+      </c>
+      <c r="F103" t="s">
+        <v>174</v>
+      </c>
+      <c r="G103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" t="s">
+        <v>182</v>
+      </c>
+      <c r="E104" t="s">
+        <v>93</v>
+      </c>
+      <c r="F104" t="s">
+        <v>147</v>
+      </c>
+      <c r="G104" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" t="s">
+        <v>172</v>
+      </c>
+      <c r="E105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" t="s">
+        <v>142</v>
+      </c>
+      <c r="G105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" t="s">
+        <v>147</v>
+      </c>
+      <c r="F106" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" t="s">
+        <v>109</v>
+      </c>
+      <c r="F107" t="s">
+        <v>157</v>
+      </c>
+      <c r="G107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" t="s">
+        <v>109</v>
+      </c>
+      <c r="F108" t="s">
+        <v>157</v>
+      </c>
+      <c r="G108" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" t="s">
+        <v>140</v>
+      </c>
+      <c r="E109" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" t="s">
+        <v>160</v>
+      </c>
+      <c r="G109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D110" t="s">
+        <v>160</v>
+      </c>
+      <c r="E110" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" t="s">
+        <v>96</v>
+      </c>
+      <c r="G110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" t="s">
+        <v>119</v>
+      </c>
+      <c r="F111" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" t="s">
+        <v>120</v>
+      </c>
+      <c r="G112" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" t="s">
+        <v>181</v>
+      </c>
+      <c r="F113" t="s">
+        <v>92</v>
+      </c>
+      <c r="G113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114" t="s">
+        <v>107</v>
+      </c>
+      <c r="F114" t="s">
+        <v>105</v>
+      </c>
+      <c r="G114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" t="s">
+        <v>122</v>
+      </c>
+      <c r="F115" t="s">
+        <v>116</v>
+      </c>
+      <c r="G115" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" t="s">
+        <v>105</v>
+      </c>
+      <c r="E116" t="s">
+        <v>156</v>
+      </c>
+      <c r="F116" t="s">
+        <v>174</v>
+      </c>
+      <c r="G116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" t="s">
+        <v>122</v>
+      </c>
+      <c r="E117" t="s">
+        <v>156</v>
+      </c>
+      <c r="F117" t="s">
+        <v>116</v>
+      </c>
+      <c r="G117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" t="s">
+        <v>119</v>
+      </c>
+      <c r="E118" t="s">
+        <v>116</v>
+      </c>
+      <c r="F118" t="s">
+        <v>159</v>
+      </c>
+      <c r="G118" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" t="s">
         <v>14</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F119" t="s">
+        <v>134</v>
+      </c>
+      <c r="G119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>101</v>
+      </c>
+      <c r="D120" t="s">
+        <v>150</v>
+      </c>
+      <c r="E120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F120" t="s">
+        <v>105</v>
+      </c>
+      <c r="G120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>156</v>
+      </c>
+      <c r="F121" t="s">
+        <v>92</v>
+      </c>
+      <c r="G121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" t="s">
+        <v>117</v>
+      </c>
+      <c r="E122" t="s">
+        <v>156</v>
+      </c>
+      <c r="F122" t="s">
+        <v>174</v>
+      </c>
+      <c r="G122" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" t="s">
+        <v>122</v>
+      </c>
+      <c r="D123" t="s">
+        <v>119</v>
+      </c>
+      <c r="E123" t="s">
+        <v>121</v>
+      </c>
+      <c r="F123" t="s">
+        <v>135</v>
+      </c>
+      <c r="G123" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" t="s">
+        <v>187</v>
+      </c>
+      <c r="F124" t="s">
+        <v>94</v>
+      </c>
+      <c r="G124" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G125" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" t="s">
+        <v>173</v>
+      </c>
+      <c r="E126" t="s">
+        <v>128</v>
+      </c>
+      <c r="F126" t="s">
+        <v>100</v>
+      </c>
+      <c r="G126" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" t="s">
+        <v>92</v>
+      </c>
+      <c r="E127" t="s">
+        <v>95</v>
+      </c>
+      <c r="F127" t="s">
+        <v>101</v>
+      </c>
+      <c r="G127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128" t="s">
+        <v>156</v>
+      </c>
+      <c r="E128" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" t="s">
+        <v>154</v>
+      </c>
+      <c r="G128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" t="s">
+        <v>159</v>
+      </c>
+      <c r="D129" t="s">
+        <v>146</v>
+      </c>
+      <c r="E129" t="s">
+        <v>92</v>
+      </c>
+      <c r="F129" t="s">
+        <v>95</v>
+      </c>
+      <c r="G129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" t="s">
+        <v>139</v>
+      </c>
+      <c r="E130" t="s">
+        <v>96</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" t="s">
+        <v>100</v>
+      </c>
+      <c r="D131" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" t="s">
+        <v>189</v>
+      </c>
+      <c r="F131" t="s">
+        <v>130</v>
+      </c>
+      <c r="G131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" t="s">
+        <v>106</v>
+      </c>
+      <c r="D132" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132" t="s">
+        <v>164</v>
+      </c>
+      <c r="F132" t="s">
+        <v>174</v>
+      </c>
+      <c r="G132" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" t="s">
+        <v>96</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>45</v>
+      </c>
+      <c r="F134" t="s">
+        <v>38</v>
+      </c>
+      <c r="G134" t="s">
         <v>23</v>
       </c>
-      <c r="F100" t="s">
-        <v>90</v>
-      </c>
-      <c r="G100" t="s">
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" t="s">
+        <v>134</v>
+      </c>
+      <c r="E135" t="s">
+        <v>96</v>
+      </c>
+      <c r="F135" t="s">
+        <v>149</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" t="s">
+        <v>160</v>
+      </c>
+      <c r="D136" t="s">
+        <v>98</v>
+      </c>
+      <c r="E136" t="s">
+        <v>97</v>
+      </c>
+      <c r="F136" t="s">
+        <v>96</v>
+      </c>
+      <c r="G136" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" t="s">
+        <v>109</v>
+      </c>
+      <c r="F137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" t="s">
+        <v>172</v>
+      </c>
+      <c r="E138" t="s">
+        <v>109</v>
+      </c>
+      <c r="F138" t="s">
+        <v>102</v>
+      </c>
+      <c r="G138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139" t="s">
+        <v>142</v>
+      </c>
+      <c r="E139" t="s">
+        <v>172</v>
+      </c>
+      <c r="F139" t="s">
+        <v>157</v>
+      </c>
+      <c r="G139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" t="s">
+        <v>167</v>
+      </c>
+      <c r="E140" t="s">
         <v>92</v>
       </c>
+      <c r="F140" t="s">
+        <v>157</v>
+      </c>
+      <c r="G140" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" t="s">
+        <v>178</v>
+      </c>
+      <c r="D141" t="s">
+        <v>109</v>
+      </c>
+      <c r="E141" t="s">
+        <v>172</v>
+      </c>
+      <c r="F141" t="s">
+        <v>186</v>
+      </c>
+      <c r="G141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142" t="s">
+        <v>181</v>
+      </c>
+      <c r="F142" t="s">
+        <v>117</v>
+      </c>
+      <c r="G142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" t="s">
+        <v>173</v>
+      </c>
+      <c r="D143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E143" t="s">
+        <v>128</v>
+      </c>
+      <c r="F143" t="s">
+        <v>187</v>
+      </c>
+      <c r="G143" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144" t="s">
+        <v>105</v>
+      </c>
+      <c r="E144" t="s">
+        <v>120</v>
+      </c>
+      <c r="F144" t="s">
+        <v>156</v>
+      </c>
+      <c r="G144" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" t="s">
+        <v>137</v>
+      </c>
+      <c r="D145" t="s">
+        <v>139</v>
+      </c>
+      <c r="E145" t="s">
+        <v>134</v>
+      </c>
+      <c r="F145" t="s">
+        <v>96</v>
+      </c>
+      <c r="G145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" t="s">
+        <v>101</v>
+      </c>
+      <c r="D146" t="s">
+        <v>124</v>
+      </c>
+      <c r="E146" t="s">
+        <v>156</v>
+      </c>
+      <c r="F146" t="s">
+        <v>92</v>
+      </c>
+      <c r="G146" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" t="s">
+        <v>104</v>
+      </c>
+      <c r="D147" t="s">
+        <v>132</v>
+      </c>
+      <c r="E147" t="s">
+        <v>106</v>
+      </c>
+      <c r="F147" t="s">
+        <v>154</v>
+      </c>
+      <c r="G147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" t="s">
+        <v>173</v>
+      </c>
+      <c r="D148" t="s">
+        <v>147</v>
+      </c>
+      <c r="E148" t="s">
+        <v>187</v>
+      </c>
+      <c r="F148" t="s">
+        <v>93</v>
+      </c>
+      <c r="G148" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" t="s">
+        <v>120</v>
+      </c>
+      <c r="D149" t="s">
+        <v>105</v>
+      </c>
+      <c r="E149" t="s">
+        <v>117</v>
+      </c>
+      <c r="F149" t="s">
+        <v>95</v>
+      </c>
+      <c r="G149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" t="s">
+        <v>164</v>
+      </c>
+      <c r="D150" t="s">
+        <v>132</v>
+      </c>
+      <c r="E150" t="s">
+        <v>106</v>
+      </c>
+      <c r="F150" t="s">
+        <v>188</v>
+      </c>
+      <c r="G150" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" t="s">
+        <v>117</v>
+      </c>
+      <c r="D151" t="s">
+        <v>172</v>
+      </c>
+      <c r="E151" t="s">
+        <v>178</v>
+      </c>
+      <c r="F151" t="s">
+        <v>167</v>
+      </c>
+      <c r="G151" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" t="s">
+        <v>106</v>
+      </c>
+      <c r="D152" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" t="s">
+        <v>105</v>
+      </c>
+      <c r="F152" t="s">
+        <v>120</v>
+      </c>
+      <c r="G152" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>178</v>
+      </c>
+      <c r="D153" t="s">
+        <v>172</v>
+      </c>
+      <c r="E153" t="s">
+        <v>181</v>
+      </c>
+      <c r="F153" t="s">
+        <v>92</v>
+      </c>
+      <c r="G153" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" t="s">
+        <v>172</v>
+      </c>
+      <c r="D154" t="s">
+        <v>178</v>
+      </c>
+      <c r="E154" t="s">
+        <v>154</v>
+      </c>
+      <c r="F154" t="s">
+        <v>102</v>
+      </c>
+      <c r="G154" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155" t="s">
+        <v>133</v>
+      </c>
+      <c r="D155" t="s">
+        <v>156</v>
+      </c>
+      <c r="E155" t="s">
+        <v>107</v>
+      </c>
+      <c r="F155" t="s">
+        <v>176</v>
+      </c>
+      <c r="G155" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" t="s">
+        <v>140</v>
+      </c>
+      <c r="D156" t="s">
+        <v>114</v>
+      </c>
+      <c r="E156" t="s">
+        <v>98</v>
+      </c>
+      <c r="F156" t="s">
+        <v>97</v>
+      </c>
+      <c r="G156" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" t="s">
+        <v>120</v>
+      </c>
+      <c r="D157" t="s">
+        <v>166</v>
+      </c>
+      <c r="E157" t="s">
+        <v>105</v>
+      </c>
+      <c r="F157" t="s">
+        <v>133</v>
+      </c>
+      <c r="G157" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" t="s">
+        <v>150</v>
+      </c>
+      <c r="D158" t="s">
+        <v>101</v>
+      </c>
+      <c r="E158" t="s">
+        <v>156</v>
+      </c>
+      <c r="F158" t="s">
+        <v>181</v>
+      </c>
+      <c r="G158" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" t="s">
+        <v>164</v>
+      </c>
+      <c r="D159" t="s">
+        <v>92</v>
+      </c>
+      <c r="E159" t="s">
+        <v>156</v>
+      </c>
+      <c r="F159" t="s">
+        <v>106</v>
+      </c>
+      <c r="G159" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" t="s">
+        <v>92</v>
+      </c>
+      <c r="E160" t="s">
+        <v>106</v>
+      </c>
+      <c r="F160" t="s">
+        <v>156</v>
+      </c>
+      <c r="G160" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" t="s">
+        <v>140</v>
+      </c>
+      <c r="D161" t="s">
+        <v>160</v>
+      </c>
+      <c r="E161" t="s">
+        <v>98</v>
+      </c>
+      <c r="F161" t="s">
+        <v>97</v>
+      </c>
+      <c r="G161" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162" t="s">
+        <v>105</v>
+      </c>
+      <c r="D162" t="s">
+        <v>120</v>
+      </c>
+      <c r="E162" t="s">
+        <v>107</v>
+      </c>
+      <c r="F162" t="s">
+        <v>156</v>
+      </c>
+      <c r="G162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163" t="s">
+        <v>117</v>
+      </c>
+      <c r="D163" t="s">
+        <v>178</v>
+      </c>
+      <c r="E163" t="s">
+        <v>92</v>
+      </c>
+      <c r="F163" t="s">
+        <v>144</v>
+      </c>
+      <c r="G163" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" t="s">
+        <v>178</v>
+      </c>
+      <c r="D164" t="s">
+        <v>117</v>
+      </c>
+      <c r="E164" t="s">
+        <v>109</v>
+      </c>
+      <c r="F164" t="s">
+        <v>172</v>
+      </c>
+      <c r="G164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165" t="s">
+        <v>185</v>
+      </c>
+      <c r="D165" t="s">
+        <v>156</v>
+      </c>
+      <c r="E165" t="s">
+        <v>105</v>
+      </c>
+      <c r="F165" t="s">
+        <v>120</v>
+      </c>
+      <c r="G165" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166" t="s">
+        <v>101</v>
+      </c>
+      <c r="D166" t="s">
+        <v>156</v>
+      </c>
+      <c r="E166" t="s">
+        <v>120</v>
+      </c>
+      <c r="F166" t="s">
+        <v>117</v>
+      </c>
+      <c r="G166" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167" t="s">
+        <v>156</v>
+      </c>
+      <c r="D167" t="s">
+        <v>104</v>
+      </c>
+      <c r="E167" t="s">
+        <v>106</v>
+      </c>
+      <c r="F167" t="s">
+        <v>188</v>
+      </c>
+      <c r="G167" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168" t="s">
+        <v>117</v>
+      </c>
+      <c r="E168" t="s">
+        <v>109</v>
+      </c>
+      <c r="F168" t="s">
+        <v>155</v>
+      </c>
+      <c r="G168" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169" t="s">
+        <v>147</v>
+      </c>
+      <c r="D169" t="s">
+        <v>93</v>
+      </c>
+      <c r="E169" t="s">
+        <v>128</v>
+      </c>
+      <c r="F169" t="s">
+        <v>187</v>
+      </c>
+      <c r="G169" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170" t="s">
+        <v>117</v>
+      </c>
+      <c r="D170" t="s">
+        <v>120</v>
+      </c>
+      <c r="E170" t="s">
+        <v>105</v>
+      </c>
+      <c r="F170" t="s">
+        <v>156</v>
+      </c>
+      <c r="G170" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171" t="s">
+        <v>96</v>
+      </c>
+      <c r="D171" t="s">
+        <v>113</v>
+      </c>
+      <c r="E171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F171" t="s">
+        <v>160</v>
+      </c>
+      <c r="G171" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" t="s">
+        <v>156</v>
+      </c>
+      <c r="D172" t="s">
+        <v>133</v>
+      </c>
+      <c r="E172" t="s">
+        <v>159</v>
+      </c>
+      <c r="F172" t="s">
+        <v>107</v>
+      </c>
+      <c r="G172" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173" t="s">
+        <v>204</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" t="s">
+        <v>194</v>
+      </c>
+      <c r="F173" t="s">
+        <v>176</v>
+      </c>
+      <c r="G173" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174" t="s">
+        <v>172</v>
+      </c>
+      <c r="D174" t="s">
+        <v>109</v>
+      </c>
+      <c r="E174" t="s">
+        <v>142</v>
+      </c>
+      <c r="F174" t="s">
+        <v>186</v>
+      </c>
+      <c r="G174" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
+        <v>180</v>
+      </c>
+      <c r="D175" t="s">
+        <v>174</v>
+      </c>
+      <c r="E175" t="s">
+        <v>117</v>
+      </c>
+      <c r="F175" t="s">
+        <v>92</v>
+      </c>
+      <c r="G175" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" t="s">
+        <v>174</v>
+      </c>
+      <c r="E176" t="s">
+        <v>117</v>
+      </c>
+      <c r="F176" t="s">
+        <v>92</v>
+      </c>
+      <c r="G176" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177" t="s">
+        <v>92</v>
+      </c>
+      <c r="E177" t="s">
+        <v>157</v>
+      </c>
+      <c r="F177" t="s">
+        <v>146</v>
+      </c>
+      <c r="G177" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178" t="s">
+        <v>110</v>
+      </c>
+      <c r="D178" t="s">
+        <v>108</v>
+      </c>
+      <c r="E178" t="s">
+        <v>94</v>
+      </c>
+      <c r="F178" t="s">
+        <v>147</v>
+      </c>
+      <c r="G178" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179" t="s">
+        <v>95</v>
+      </c>
+      <c r="D179" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" t="s">
+        <v>120</v>
+      </c>
+      <c r="F179" t="s">
+        <v>159</v>
+      </c>
+      <c r="G179" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180" t="s">
+        <v>185</v>
+      </c>
+      <c r="D180" t="s">
+        <v>169</v>
+      </c>
+      <c r="E180" t="s">
+        <v>153</v>
+      </c>
+      <c r="F180" t="s">
+        <v>120</v>
+      </c>
+      <c r="G180" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181" t="s">
+        <v>120</v>
+      </c>
+      <c r="D181" t="s">
+        <v>169</v>
+      </c>
+      <c r="E181" t="s">
+        <v>184</v>
+      </c>
+      <c r="F181" t="s">
+        <v>156</v>
+      </c>
+      <c r="G181" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" t="s">
+        <v>178</v>
+      </c>
+      <c r="E182" t="s">
+        <v>172</v>
+      </c>
+      <c r="F182" t="s">
+        <v>109</v>
+      </c>
+      <c r="G182" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183" t="s">
+        <v>147</v>
+      </c>
+      <c r="D183" t="s">
+        <v>128</v>
+      </c>
+      <c r="E183" t="s">
+        <v>93</v>
+      </c>
+      <c r="F183" t="s">
+        <v>173</v>
+      </c>
+      <c r="G183" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184" t="s">
+        <v>156</v>
+      </c>
+      <c r="D184" t="s">
+        <v>163</v>
+      </c>
+      <c r="E184" t="s">
+        <v>106</v>
+      </c>
+      <c r="F184" t="s">
+        <v>164</v>
+      </c>
+      <c r="G184" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185" t="s">
+        <v>135</v>
+      </c>
+      <c r="D185" t="s">
+        <v>100</v>
+      </c>
+      <c r="E185" t="s">
+        <v>109</v>
+      </c>
+      <c r="F185" t="s">
+        <v>176</v>
+      </c>
+      <c r="G185" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186" t="s">
+        <v>198</v>
+      </c>
+      <c r="D186" t="s">
+        <v>200</v>
+      </c>
+      <c r="E186" t="s">
+        <v>202</v>
+      </c>
+      <c r="F186" t="s">
+        <v>191</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>191</v>
+      </c>
+      <c r="C187" t="s">
+        <v>201</v>
+      </c>
+      <c r="D187" t="s">
+        <v>199</v>
+      </c>
+      <c r="E187" t="s">
+        <v>192</v>
+      </c>
+      <c r="F187" t="s">
+        <v>36</v>
+      </c>
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
+      <c r="C188" t="s">
+        <v>201</v>
+      </c>
+      <c r="D188" t="s">
+        <v>191</v>
+      </c>
+      <c r="E188" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" t="s">
+        <v>200</v>
+      </c>
+      <c r="G188" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>193</v>
+      </c>
+      <c r="C189" t="s">
+        <v>38</v>
+      </c>
+      <c r="D189" t="s">
+        <v>32</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
+      <c r="C190" t="s">
+        <v>200</v>
+      </c>
+      <c r="D190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" t="s">
+        <v>202</v>
+      </c>
+      <c r="F190" t="s">
+        <v>201</v>
+      </c>
+      <c r="G190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>195</v>
+      </c>
+      <c r="C191" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" t="s">
+        <v>133</v>
+      </c>
+      <c r="E191" t="s">
+        <v>32</v>
+      </c>
+      <c r="F191" t="s">
+        <v>139</v>
+      </c>
+      <c r="G191" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
+      <c r="C192" t="s">
+        <v>199</v>
+      </c>
+      <c r="D192" t="s">
+        <v>198</v>
+      </c>
+      <c r="E192" t="s">
+        <v>200</v>
+      </c>
+      <c r="F192" t="s">
+        <v>201</v>
+      </c>
+      <c r="G192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>197</v>
+      </c>
+      <c r="C193" t="s">
+        <v>200</v>
+      </c>
+      <c r="D193" t="s">
+        <v>202</v>
+      </c>
+      <c r="E193" t="s">
+        <v>139</v>
+      </c>
+      <c r="F193" t="s">
+        <v>199</v>
+      </c>
+      <c r="G193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
+      <c r="C194" t="s">
+        <v>154</v>
+      </c>
+      <c r="D194" t="s">
+        <v>190</v>
+      </c>
+      <c r="E194" t="s">
+        <v>106</v>
+      </c>
+      <c r="F194" t="s">
+        <v>196</v>
+      </c>
+      <c r="G194" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195" t="s">
+        <v>191</v>
+      </c>
+      <c r="D195" t="s">
+        <v>201</v>
+      </c>
+      <c r="E195" t="s">
+        <v>43</v>
+      </c>
+      <c r="F195" t="s">
+        <v>193</v>
+      </c>
+      <c r="G195" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
+      <c r="C196" t="s">
+        <v>202</v>
+      </c>
+      <c r="D196" t="s">
+        <v>194</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s">
+        <v>190</v>
+      </c>
+      <c r="G196" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>201</v>
+      </c>
+      <c r="C197" t="s">
+        <v>191</v>
+      </c>
+      <c r="D197" t="s">
+        <v>192</v>
+      </c>
+      <c r="E197" t="s">
+        <v>36</v>
+      </c>
+      <c r="F197" t="s">
+        <v>199</v>
+      </c>
+      <c r="G197" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198" t="s">
+        <v>200</v>
+      </c>
+      <c r="D198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" t="s">
+        <v>194</v>
+      </c>
+      <c r="F198" t="s">
+        <v>201</v>
+      </c>
+      <c r="G198" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>203</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>139</v>
+      </c>
+      <c r="E199" t="s">
+        <v>137</v>
+      </c>
+      <c r="F199" t="s">
+        <v>96</v>
+      </c>
+      <c r="G199" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
+      <c r="C200" t="s">
+        <v>244</v>
+      </c>
+      <c r="D200" t="s">
+        <v>245</v>
+      </c>
+      <c r="E200" t="s">
+        <v>230</v>
+      </c>
+      <c r="F200" t="s">
+        <v>177</v>
+      </c>
+      <c r="G200" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>205</v>
+      </c>
+      <c r="C201" t="s">
+        <v>246</v>
+      </c>
+      <c r="D201" t="s">
+        <v>238</v>
+      </c>
+      <c r="E201" t="s">
+        <v>240</v>
+      </c>
+      <c r="F201" t="s">
+        <v>232</v>
+      </c>
+      <c r="G201" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
+      <c r="C202" t="s">
+        <v>221</v>
+      </c>
+      <c r="D202" t="s">
+        <v>239</v>
+      </c>
+      <c r="E202" t="s">
+        <v>249</v>
+      </c>
+      <c r="F202" t="s">
+        <v>232</v>
+      </c>
+      <c r="G202" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>207</v>
+      </c>
+      <c r="C203" t="s">
+        <v>219</v>
+      </c>
+      <c r="D203" t="s">
+        <v>257</v>
+      </c>
+      <c r="E203" t="s">
+        <v>217</v>
+      </c>
+      <c r="F203" t="s">
+        <v>212</v>
+      </c>
+      <c r="G203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
+      <c r="C204" t="s">
+        <v>225</v>
+      </c>
+      <c r="D204" t="s">
+        <v>226</v>
+      </c>
+      <c r="E204" t="s">
+        <v>210</v>
+      </c>
+      <c r="F204" t="s">
+        <v>205</v>
+      </c>
+      <c r="G204" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>209</v>
+      </c>
+      <c r="C205" t="s">
+        <v>217</v>
+      </c>
+      <c r="D205" t="s">
+        <v>257</v>
+      </c>
+      <c r="E205" t="s">
+        <v>252</v>
+      </c>
+      <c r="F205" t="s">
+        <v>251</v>
+      </c>
+      <c r="G205" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
+      <c r="C206" t="s">
+        <v>226</v>
+      </c>
+      <c r="D206" t="s">
+        <v>208</v>
+      </c>
+      <c r="E206" t="s">
+        <v>232</v>
+      </c>
+      <c r="F206" t="s">
+        <v>225</v>
+      </c>
+      <c r="G206" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>211</v>
+      </c>
+      <c r="C207" t="s">
+        <v>247</v>
+      </c>
+      <c r="D207" t="s">
+        <v>249</v>
+      </c>
+      <c r="E207" t="s">
+        <v>239</v>
+      </c>
+      <c r="F207" t="s">
+        <v>250</v>
+      </c>
+      <c r="G207" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
+      <c r="C208" t="s">
+        <v>234</v>
+      </c>
+      <c r="D208" t="s">
+        <v>208</v>
+      </c>
+      <c r="E208" t="s">
+        <v>235</v>
+      </c>
+      <c r="F208" t="s">
+        <v>239</v>
+      </c>
+      <c r="G208" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>213</v>
+      </c>
+      <c r="C209" t="s">
+        <v>236</v>
+      </c>
+      <c r="D209" t="s">
+        <v>229</v>
+      </c>
+      <c r="E209" t="s">
+        <v>226</v>
+      </c>
+      <c r="F209" t="s">
+        <v>225</v>
+      </c>
+      <c r="G209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210" t="s">
+        <v>236</v>
+      </c>
+      <c r="D210" t="s">
+        <v>238</v>
+      </c>
+      <c r="E210" t="s">
+        <v>250</v>
+      </c>
+      <c r="F210" t="s">
+        <v>241</v>
+      </c>
+      <c r="G210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211" t="s">
+        <v>224</v>
+      </c>
+      <c r="D211" t="s">
+        <v>255</v>
+      </c>
+      <c r="E211" t="s">
+        <v>234</v>
+      </c>
+      <c r="F211" t="s">
+        <v>38</v>
+      </c>
+      <c r="G211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" t="s">
+        <v>135</v>
+      </c>
+      <c r="D212" t="s">
+        <v>127</v>
+      </c>
+      <c r="E212" t="s">
+        <v>235</v>
+      </c>
+      <c r="F212" t="s">
+        <v>234</v>
+      </c>
+      <c r="G212" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213" t="s">
+        <v>257</v>
+      </c>
+      <c r="D213" t="s">
+        <v>209</v>
+      </c>
+      <c r="E213" t="s">
+        <v>207</v>
+      </c>
+      <c r="F213" t="s">
+        <v>251</v>
+      </c>
+      <c r="G213" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214" t="s">
+        <v>239</v>
+      </c>
+      <c r="D214" t="s">
+        <v>208</v>
+      </c>
+      <c r="E214" t="s">
+        <v>222</v>
+      </c>
+      <c r="F214" t="s">
+        <v>232</v>
+      </c>
+      <c r="G214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" t="s">
+        <v>207</v>
+      </c>
+      <c r="D215" t="s">
+        <v>257</v>
+      </c>
+      <c r="E215" t="s">
+        <v>234</v>
+      </c>
+      <c r="F215" t="s">
+        <v>217</v>
+      </c>
+      <c r="G215" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
+      <c r="C216" t="s">
+        <v>222</v>
+      </c>
+      <c r="D216" t="s">
+        <v>221</v>
+      </c>
+      <c r="E216" t="s">
+        <v>249</v>
+      </c>
+      <c r="F216" t="s">
+        <v>239</v>
+      </c>
+      <c r="G216" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>221</v>
+      </c>
+      <c r="C217" t="s">
+        <v>239</v>
+      </c>
+      <c r="D217" t="s">
+        <v>249</v>
+      </c>
+      <c r="E217" t="s">
+        <v>222</v>
+      </c>
+      <c r="F217" t="s">
+        <v>220</v>
+      </c>
+      <c r="G217" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
+      <c r="C218" t="s">
+        <v>220</v>
+      </c>
+      <c r="D218" t="s">
+        <v>221</v>
+      </c>
+      <c r="E218" t="s">
+        <v>239</v>
+      </c>
+      <c r="F218" t="s">
+        <v>249</v>
+      </c>
+      <c r="G218" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>223</v>
+      </c>
+      <c r="C219" t="s">
+        <v>208</v>
+      </c>
+      <c r="D219" t="s">
+        <v>226</v>
+      </c>
+      <c r="E219" t="s">
+        <v>236</v>
+      </c>
+      <c r="F219" t="s">
+        <v>229</v>
+      </c>
+      <c r="G219" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
+      <c r="C220" t="s">
+        <v>215</v>
+      </c>
+      <c r="D220" t="s">
+        <v>255</v>
+      </c>
+      <c r="E220" t="s">
+        <v>234</v>
+      </c>
+      <c r="F220" t="s">
+        <v>38</v>
+      </c>
+      <c r="G220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>225</v>
+      </c>
+      <c r="C221" t="s">
+        <v>208</v>
+      </c>
+      <c r="D221" t="s">
+        <v>226</v>
+      </c>
+      <c r="E221" t="s">
+        <v>240</v>
+      </c>
+      <c r="F221" t="s">
+        <v>205</v>
+      </c>
+      <c r="G221" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
+      <c r="C222" t="s">
+        <v>208</v>
+      </c>
+      <c r="D222" t="s">
+        <v>213</v>
+      </c>
+      <c r="E222" t="s">
+        <v>236</v>
+      </c>
+      <c r="F222" t="s">
+        <v>210</v>
+      </c>
+      <c r="G222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>227</v>
+      </c>
+      <c r="C223" t="s">
+        <v>253</v>
+      </c>
+      <c r="D223" t="s">
+        <v>228</v>
+      </c>
+      <c r="E223" t="s">
+        <v>230</v>
+      </c>
+      <c r="F223" t="s">
+        <v>242</v>
+      </c>
+      <c r="G223" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224" t="s">
+        <v>227</v>
+      </c>
+      <c r="D224" t="s">
+        <v>253</v>
+      </c>
+      <c r="E224" t="s">
+        <v>230</v>
+      </c>
+      <c r="F224" t="s">
+        <v>242</v>
+      </c>
+      <c r="G224" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>229</v>
+      </c>
+      <c r="C225" t="s">
+        <v>236</v>
+      </c>
+      <c r="D225" t="s">
+        <v>213</v>
+      </c>
+      <c r="E225" t="s">
+        <v>223</v>
+      </c>
+      <c r="F225" t="s">
+        <v>205</v>
+      </c>
+      <c r="G225" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>230</v>
+      </c>
+      <c r="C226" t="s">
+        <v>253</v>
+      </c>
+      <c r="D226" t="s">
+        <v>228</v>
+      </c>
+      <c r="E226" t="s">
+        <v>227</v>
+      </c>
+      <c r="F226" t="s">
+        <v>242</v>
+      </c>
+      <c r="G226" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>231</v>
+      </c>
+      <c r="C227" t="s">
+        <v>235</v>
+      </c>
+      <c r="D227" t="s">
+        <v>208</v>
+      </c>
+      <c r="E227" t="s">
+        <v>62</v>
+      </c>
+      <c r="F227" t="s">
+        <v>238</v>
+      </c>
+      <c r="G227" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>232</v>
+      </c>
+      <c r="C228" t="s">
+        <v>205</v>
+      </c>
+      <c r="D228" t="s">
+        <v>240</v>
+      </c>
+      <c r="E228" t="s">
+        <v>225</v>
+      </c>
+      <c r="F228" t="s">
+        <v>238</v>
+      </c>
+      <c r="G228" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>233</v>
+      </c>
+      <c r="C229" t="s">
+        <v>240</v>
+      </c>
+      <c r="D229" t="s">
+        <v>212</v>
+      </c>
+      <c r="E229" t="s">
+        <v>254</v>
+      </c>
+      <c r="F229" t="s">
+        <v>250</v>
+      </c>
+      <c r="G229" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>234</v>
+      </c>
+      <c r="C230" t="s">
+        <v>246</v>
+      </c>
+      <c r="D230" t="s">
+        <v>212</v>
+      </c>
+      <c r="E230" t="s">
+        <v>235</v>
+      </c>
+      <c r="F230" t="s">
+        <v>218</v>
+      </c>
+      <c r="G230" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>235</v>
+      </c>
+      <c r="C231" t="s">
+        <v>208</v>
+      </c>
+      <c r="D231" t="s">
+        <v>231</v>
+      </c>
+      <c r="E231" t="s">
+        <v>238</v>
+      </c>
+      <c r="F231" t="s">
+        <v>232</v>
+      </c>
+      <c r="G231" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>236</v>
+      </c>
+      <c r="C232" t="s">
+        <v>213</v>
+      </c>
+      <c r="D232" t="s">
+        <v>229</v>
+      </c>
+      <c r="E232" t="s">
+        <v>226</v>
+      </c>
+      <c r="F232" t="s">
+        <v>214</v>
+      </c>
+      <c r="G232" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>237</v>
+      </c>
+      <c r="C233" t="s">
+        <v>254</v>
+      </c>
+      <c r="D233" t="s">
+        <v>222</v>
+      </c>
+      <c r="E233" t="s">
+        <v>239</v>
+      </c>
+      <c r="F233" t="s">
+        <v>247</v>
+      </c>
+      <c r="G233" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>238</v>
+      </c>
+      <c r="C234" t="s">
+        <v>241</v>
+      </c>
+      <c r="D234" t="s">
+        <v>248</v>
+      </c>
+      <c r="E234" t="s">
+        <v>250</v>
+      </c>
+      <c r="F234" t="s">
+        <v>205</v>
+      </c>
+      <c r="G234" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>239</v>
+      </c>
+      <c r="C235" t="s">
+        <v>221</v>
+      </c>
+      <c r="D235" t="s">
+        <v>222</v>
+      </c>
+      <c r="E235" t="s">
+        <v>249</v>
+      </c>
+      <c r="F235" t="s">
+        <v>220</v>
+      </c>
+      <c r="G235" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>240</v>
+      </c>
+      <c r="C236" t="s">
+        <v>205</v>
+      </c>
+      <c r="D236" t="s">
+        <v>221</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+      <c r="F236" t="s">
+        <v>225</v>
+      </c>
+      <c r="G236" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>241</v>
+      </c>
+      <c r="C237" t="s">
+        <v>238</v>
+      </c>
+      <c r="D237" t="s">
+        <v>248</v>
+      </c>
+      <c r="E237" t="s">
+        <v>250</v>
+      </c>
+      <c r="F237" t="s">
+        <v>205</v>
+      </c>
+      <c r="G237" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>242</v>
+      </c>
+      <c r="C238" t="s">
+        <v>228</v>
+      </c>
+      <c r="D238" t="s">
+        <v>230</v>
+      </c>
+      <c r="E238" t="s">
+        <v>227</v>
+      </c>
+      <c r="F238" t="s">
+        <v>253</v>
+      </c>
+      <c r="G238" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>243</v>
+      </c>
+      <c r="C239" t="s">
+        <v>251</v>
+      </c>
+      <c r="D239" t="s">
+        <v>252</v>
+      </c>
+      <c r="E239" t="s">
+        <v>223</v>
+      </c>
+      <c r="F239" t="s">
+        <v>235</v>
+      </c>
+      <c r="G239" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>244</v>
+      </c>
+      <c r="C240" t="s">
+        <v>245</v>
+      </c>
+      <c r="D240" t="s">
+        <v>204</v>
+      </c>
+      <c r="E240" t="s">
+        <v>228</v>
+      </c>
+      <c r="F240" t="s">
+        <v>230</v>
+      </c>
+      <c r="G240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>245</v>
+      </c>
+      <c r="C241" t="s">
+        <v>228</v>
+      </c>
+      <c r="D241" t="s">
+        <v>230</v>
+      </c>
+      <c r="E241" t="s">
+        <v>242</v>
+      </c>
+      <c r="F241" t="s">
+        <v>244</v>
+      </c>
+      <c r="G241" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>246</v>
+      </c>
+      <c r="C242" t="s">
+        <v>205</v>
+      </c>
+      <c r="D242" t="s">
+        <v>240</v>
+      </c>
+      <c r="E242" t="s">
+        <v>241</v>
+      </c>
+      <c r="F242" t="s">
+        <v>238</v>
+      </c>
+      <c r="G242" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>247</v>
+      </c>
+      <c r="C243" t="s">
+        <v>211</v>
+      </c>
+      <c r="D243" t="s">
+        <v>239</v>
+      </c>
+      <c r="E243" t="s">
+        <v>237</v>
+      </c>
+      <c r="F243" t="s">
+        <v>249</v>
+      </c>
+      <c r="G243" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>248</v>
+      </c>
+      <c r="C244" t="s">
+        <v>241</v>
+      </c>
+      <c r="D244" t="s">
+        <v>238</v>
+      </c>
+      <c r="E244" t="s">
+        <v>250</v>
+      </c>
+      <c r="F244" t="s">
+        <v>214</v>
+      </c>
+      <c r="G244" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>249</v>
+      </c>
+      <c r="C245" t="s">
+        <v>221</v>
+      </c>
+      <c r="D245" t="s">
+        <v>222</v>
+      </c>
+      <c r="E245" t="s">
+        <v>220</v>
+      </c>
+      <c r="F245" t="s">
+        <v>239</v>
+      </c>
+      <c r="G245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>250</v>
+      </c>
+      <c r="C246" t="s">
+        <v>238</v>
+      </c>
+      <c r="D246" t="s">
+        <v>241</v>
+      </c>
+      <c r="E246" t="s">
+        <v>248</v>
+      </c>
+      <c r="F246" t="s">
+        <v>205</v>
+      </c>
+      <c r="G246" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>251</v>
+      </c>
+      <c r="C247" t="s">
+        <v>252</v>
+      </c>
+      <c r="D247" t="s">
+        <v>257</v>
+      </c>
+      <c r="E247" t="s">
+        <v>243</v>
+      </c>
+      <c r="F247" t="s">
+        <v>217</v>
+      </c>
+      <c r="G247" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>252</v>
+      </c>
+      <c r="C248" t="s">
+        <v>251</v>
+      </c>
+      <c r="D248" t="s">
+        <v>257</v>
+      </c>
+      <c r="E248" t="s">
+        <v>243</v>
+      </c>
+      <c r="F248" t="s">
+        <v>217</v>
+      </c>
+      <c r="G248" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>253</v>
+      </c>
+      <c r="C249" t="s">
+        <v>227</v>
+      </c>
+      <c r="D249" t="s">
+        <v>228</v>
+      </c>
+      <c r="E249" t="s">
+        <v>230</v>
+      </c>
+      <c r="F249" t="s">
+        <v>242</v>
+      </c>
+      <c r="G249" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>254</v>
+      </c>
+      <c r="C250" t="s">
+        <v>237</v>
+      </c>
+      <c r="D250" t="s">
+        <v>239</v>
+      </c>
+      <c r="E250" t="s">
+        <v>222</v>
+      </c>
+      <c r="F250" t="s">
+        <v>221</v>
+      </c>
+      <c r="G250" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>255</v>
+      </c>
+      <c r="C251" t="s">
+        <v>215</v>
+      </c>
+      <c r="D251" t="s">
+        <v>224</v>
+      </c>
+      <c r="E251" t="s">
+        <v>234</v>
+      </c>
+      <c r="F251" t="s">
+        <v>38</v>
+      </c>
+      <c r="G251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>256</v>
+      </c>
+      <c r="C252" t="s">
+        <v>216</v>
+      </c>
+      <c r="D252" t="s">
+        <v>235</v>
+      </c>
+      <c r="E252" t="s">
+        <v>257</v>
+      </c>
+      <c r="F252" t="s">
+        <v>252</v>
+      </c>
+      <c r="G252" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>257</v>
+      </c>
+      <c r="C253" t="s">
+        <v>252</v>
+      </c>
+      <c r="D253" t="s">
+        <v>251</v>
+      </c>
+      <c r="E253" t="s">
+        <v>217</v>
+      </c>
+      <c r="F253" t="s">
+        <v>235</v>
+      </c>
+      <c r="G253" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>258</v>
+      </c>
+      <c r="C254" t="s">
+        <v>270</v>
+      </c>
+      <c r="D254" t="s">
+        <v>278</v>
+      </c>
+      <c r="E254" t="s">
+        <v>266</v>
+      </c>
+      <c r="F254" t="s">
+        <v>263</v>
+      </c>
+      <c r="G254" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>259</v>
+      </c>
+      <c r="C255" t="s">
+        <v>261</v>
+      </c>
+      <c r="D255" t="s">
+        <v>260</v>
+      </c>
+      <c r="E255" t="s">
+        <v>258</v>
+      </c>
+      <c r="F255" t="s">
+        <v>270</v>
+      </c>
+      <c r="G255" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>260</v>
+      </c>
+      <c r="C256" t="s">
+        <v>259</v>
+      </c>
+      <c r="D256" t="s">
+        <v>261</v>
+      </c>
+      <c r="E256" t="s">
+        <v>137</v>
+      </c>
+      <c r="F256" t="s">
+        <v>139</v>
+      </c>
+      <c r="G256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>261</v>
+      </c>
+      <c r="C257" t="s">
+        <v>259</v>
+      </c>
+      <c r="D257" t="s">
+        <v>260</v>
+      </c>
+      <c r="E257" t="s">
+        <v>270</v>
+      </c>
+      <c r="F257" t="s">
+        <v>278</v>
+      </c>
+      <c r="G257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>262</v>
+      </c>
+      <c r="C258" t="s">
+        <v>267</v>
+      </c>
+      <c r="D258" t="s">
+        <v>269</v>
+      </c>
+      <c r="E258" t="s">
+        <v>263</v>
+      </c>
+      <c r="F258" t="s">
+        <v>264</v>
+      </c>
+      <c r="G258" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>263</v>
+      </c>
+      <c r="C259" t="s">
+        <v>268</v>
+      </c>
+      <c r="D259" t="s">
+        <v>269</v>
+      </c>
+      <c r="E259" t="s">
+        <v>267</v>
+      </c>
+      <c r="F259" t="s">
+        <v>264</v>
+      </c>
+      <c r="G259" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>264</v>
+      </c>
+      <c r="C260" t="s">
+        <v>269</v>
+      </c>
+      <c r="D260" t="s">
+        <v>267</v>
+      </c>
+      <c r="E260" t="s">
+        <v>263</v>
+      </c>
+      <c r="F260" t="s">
+        <v>268</v>
+      </c>
+      <c r="G260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>265</v>
+      </c>
+      <c r="C261" t="s">
+        <v>266</v>
+      </c>
+      <c r="D261" t="s">
+        <v>258</v>
+      </c>
+      <c r="E261" t="s">
+        <v>278</v>
+      </c>
+      <c r="F261" t="s">
+        <v>270</v>
+      </c>
+      <c r="G261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>266</v>
+      </c>
+      <c r="C262" t="s">
+        <v>265</v>
+      </c>
+      <c r="D262" t="s">
+        <v>258</v>
+      </c>
+      <c r="E262" t="s">
+        <v>278</v>
+      </c>
+      <c r="F262" t="s">
+        <v>270</v>
+      </c>
+      <c r="G262" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>267</v>
+      </c>
+      <c r="C263" t="s">
+        <v>269</v>
+      </c>
+      <c r="D263" t="s">
+        <v>262</v>
+      </c>
+      <c r="E263" t="s">
+        <v>264</v>
+      </c>
+      <c r="F263" t="s">
+        <v>263</v>
+      </c>
+      <c r="G263" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>268</v>
+      </c>
+      <c r="C264" t="s">
+        <v>263</v>
+      </c>
+      <c r="D264" t="s">
+        <v>269</v>
+      </c>
+      <c r="E264" t="s">
+        <v>267</v>
+      </c>
+      <c r="F264" t="s">
+        <v>264</v>
+      </c>
+      <c r="G264" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>269</v>
+      </c>
+      <c r="C265" t="s">
+        <v>267</v>
+      </c>
+      <c r="D265" t="s">
+        <v>268</v>
+      </c>
+      <c r="E265" t="s">
+        <v>264</v>
+      </c>
+      <c r="F265" t="s">
+        <v>263</v>
+      </c>
+      <c r="G265" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>270</v>
+      </c>
+      <c r="C266" t="s">
+        <v>278</v>
+      </c>
+      <c r="D266" t="s">
+        <v>263</v>
+      </c>
+      <c r="E266" t="s">
+        <v>268</v>
+      </c>
+      <c r="F266" t="s">
+        <v>269</v>
+      </c>
+      <c r="G266" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>271</v>
+      </c>
+      <c r="C267" t="s">
+        <v>276</v>
+      </c>
+      <c r="D267" t="s">
+        <v>275</v>
+      </c>
+      <c r="E267" t="s">
+        <v>274</v>
+      </c>
+      <c r="F267" t="s">
+        <v>272</v>
+      </c>
+      <c r="G267" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>272</v>
+      </c>
+      <c r="C268" t="s">
+        <v>276</v>
+      </c>
+      <c r="D268" t="s">
+        <v>275</v>
+      </c>
+      <c r="E268" t="s">
+        <v>274</v>
+      </c>
+      <c r="F268" t="s">
+        <v>271</v>
+      </c>
+      <c r="G268" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>273</v>
+      </c>
+      <c r="C269" t="s">
+        <v>276</v>
+      </c>
+      <c r="D269" t="s">
+        <v>275</v>
+      </c>
+      <c r="E269" t="s">
+        <v>274</v>
+      </c>
+      <c r="F269" t="s">
+        <v>272</v>
+      </c>
+      <c r="G269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>274</v>
+      </c>
+      <c r="C270" t="s">
+        <v>276</v>
+      </c>
+      <c r="D270" t="s">
+        <v>275</v>
+      </c>
+      <c r="E270" t="s">
+        <v>272</v>
+      </c>
+      <c r="F270" t="s">
+        <v>271</v>
+      </c>
+      <c r="G270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>275</v>
+      </c>
+      <c r="C271" t="s">
+        <v>276</v>
+      </c>
+      <c r="D271" t="s">
+        <v>274</v>
+      </c>
+      <c r="E271" t="s">
+        <v>272</v>
+      </c>
+      <c r="F271" t="s">
+        <v>271</v>
+      </c>
+      <c r="G271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>276</v>
+      </c>
+      <c r="C272" t="s">
+        <v>275</v>
+      </c>
+      <c r="D272" t="s">
+        <v>274</v>
+      </c>
+      <c r="E272" t="s">
+        <v>272</v>
+      </c>
+      <c r="F272" t="s">
+        <v>271</v>
+      </c>
+      <c r="G272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>277</v>
+      </c>
+      <c r="C273" t="s">
+        <v>271</v>
+      </c>
+      <c r="D273" t="s">
+        <v>276</v>
+      </c>
+      <c r="E273" t="s">
+        <v>275</v>
+      </c>
+      <c r="F273" t="s">
+        <v>274</v>
+      </c>
+      <c r="G273" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>278</v>
+      </c>
+      <c r="C274" t="s">
+        <v>270</v>
+      </c>
+      <c r="D274" t="s">
+        <v>258</v>
+      </c>
+      <c r="E274" t="s">
+        <v>263</v>
+      </c>
+      <c r="F274" t="s">
+        <v>268</v>
+      </c>
+      <c r="G274" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>